--- a/RealProject/kids_parents_from_kids_debug21.xlsx
+++ b/RealProject/kids_parents_from_kids_debug21.xlsx
@@ -2015,7 +2015,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2186,7 +2186,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2357,7 +2357,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2374,7 +2374,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3512,7 +3512,11 @@
           <t>Ahlam Oukiaden Nhari</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -3529,7 +3533,11 @@
           <t>Ahlam Oukiaden Nhari</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -3546,7 +3554,11 @@
           <t>Ahlam Oukiaden Nhari</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -4952,7 +4964,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5567,7 +5579,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -5981,7 +5993,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6006,7 +6018,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6081,7 +6093,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -6102,7 +6114,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>

--- a/RealProject/kids_parents_from_kids_debug21.xlsx
+++ b/RealProject/kids_parents_from_kids_debug21.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Afkir Mohamed / Karima Chamlal</t>
+          <t>Karima Chamlal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Afkir Mohamed / Karima Chamlal</t>
+          <t>Karima Chamlal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Walid Ahmadi</t>
+          <t>Walid Ahmadi und Rachida Ahmadi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Walid Ahmadi</t>
+          <t>Walid Ahmadi und Rachida Ahmadi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Walid Ahmadi</t>
+          <t>Walid Ahmadi und Rachida Ahmadi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Moulay El Hassan Ait Sghir</t>
+          <t>Moulay El Hassan Ait Sghir YaminaSaidi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,11 +727,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>623914891</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -752,11 +748,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>016097264718</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -777,11 +769,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>015782364891</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -826,17 +814,17 @@
           <t>Alyah Choua</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Beguenstigter/Zahlungspflichtiger</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>01608531784</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -899,11 +887,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>01637020882</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -924,11 +908,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>01637020882</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -949,11 +929,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>01637020882</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -974,11 +950,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>630323444</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -989,7 +961,11 @@
           <t>Arabaj El Bouslami Ayman</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-646697186</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>B0</t>
@@ -1016,11 +992,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>015774239272</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1041,11 +1013,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>01636052152</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1066,11 +1034,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>644280857</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1091,11 +1055,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>01627270413</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1116,11 +1076,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>01627270413</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1141,11 +1097,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>632334540</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1156,7 +1108,11 @@
           <t>Bakhtaoui Tasnim</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jamal Bakhtaoui</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>B0</t>
@@ -1173,7 +1129,11 @@
           <t>Barta Adam</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Abdellatif Barta</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>B0</t>
@@ -1200,11 +1160,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>015778648500</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1225,11 +1181,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>015778648500</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1242,7 +1194,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mohamed Belga</t>
+          <t>Mohamed Belga und Sabah Bohaloui</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1250,11 +1202,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>01629347971</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1267,7 +1215,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Huelya Tiska Belkassem Hafid</t>
+          <t>Huelya Tiska</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1275,11 +1223,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>33561831</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1300,11 +1244,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>684608600</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1325,11 +1265,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>33561831</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1350,11 +1286,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>015755184201</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1375,11 +1307,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>631130470</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1400,11 +1328,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>88757701</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1415,7 +1339,11 @@
           <t>Ben Nasser Rania</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1786984637</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>B0</t>
@@ -1476,7 +1404,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Amal Hajji</t>
+          <t>Amal Hajji und Khalid Bensaid</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1484,11 +1412,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>83039184</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1509,11 +1433,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>621205280</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1534,11 +1454,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>015252615611</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1559,11 +1475,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>015202764625</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1584,11 +1496,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>49137956</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1609,11 +1517,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>49137956</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1634,11 +1538,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>015731354679</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1659,11 +1559,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>015731354679</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1684,11 +1580,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>015731354679</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1785,7 +1677,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mostapha Bouzakri</t>
+          <t>Mostapha Bouzakri Bouzakri NaimaRhadi</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1793,11 +1685,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>015751704161</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1818,11 +1706,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1843,11 +1727,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1868,11 +1748,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1893,11 +1769,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1918,11 +1790,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1943,11 +1811,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1968,11 +1832,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>015228267087</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1993,11 +1853,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>620912784</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2018,11 +1874,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>82012638</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2043,11 +1895,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>86624581</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2060,7 +1908,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Thomas Calabro / Naima Calabro  /</t>
+          <t>Naima Calabro</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2068,11 +1916,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>015228127376</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2093,11 +1937,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>015737878177</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2118,11 +1958,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>015737878177</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2143,11 +1979,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>73515681</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2168,11 +2000,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>73515681</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2183,17 +2011,17 @@
           <t>Chamlal Madina</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Beguenstigter/Zahlungspflichtiger</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>01608531784</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2214,11 +2042,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>015758484473</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2239,11 +2063,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>015758484473</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2256,7 +2076,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui</t>
+          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2264,11 +2084,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>015773665575</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2281,7 +2097,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui</t>
+          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2289,11 +2105,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>015773665575</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2306,7 +2118,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui</t>
+          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2314,11 +2126,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>015773665575</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2331,7 +2139,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Said Chochouh</t>
+          <t>Said Chochouh und Ouafae Barzizoui</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2339,11 +2147,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>78354446</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2354,7 +2158,11 @@
           <t>Chochouh Maryam</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Said Chochouh</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>A5</t>
@@ -2371,7 +2179,11 @@
           <t>Chochouh Zaynab</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Said Chochouh</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>A5</t>
@@ -2398,11 +2210,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>72268205</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2423,11 +2231,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>72268205</t>
-        </is>
-      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2448,11 +2252,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>72001140</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2473,11 +2273,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>72001140</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2498,11 +2294,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>72001140</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2523,11 +2315,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>657818946</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2548,11 +2336,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>657818946</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2573,11 +2357,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>738667380</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2598,11 +2378,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>738667380</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2623,11 +2399,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>738667380</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2640,7 +2412,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Jaouad El Aissaoui</t>
+          <t>Jaouad El Aissaoui und OuafaBoussenna</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2648,11 +2420,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>015255709798</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2665,7 +2433,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Jaouad El Aissaoui</t>
+          <t>Jaouad El Aissaoui und OuafaBoussenna</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2673,11 +2441,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>015255709798</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2715,11 +2479,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>015903020809</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2740,11 +2500,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>015903020809</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2765,11 +2521,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>015903020809</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2790,11 +2542,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>58638258</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2815,11 +2563,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>58638258</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2840,11 +2584,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>6 24640578</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2865,11 +2605,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>6 24640578</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2882,7 +2618,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ahmed El Bakkali</t>
+          <t>Ahmed El Bakkali und Kenza Serhan</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2890,11 +2626,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>015906390487</t>
-        </is>
-      </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2915,11 +2647,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>015228352331</t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2940,11 +2668,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>015228352331</t>
-        </is>
-      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2982,11 +2706,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>51413553</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3016,7 +2736,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Monir El Boujaddaini</t>
+          <t>Monir El Boujaddaini Rachida Bokhabza-El Boujaddaini</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3024,11 +2744,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>621609954</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3049,11 +2765,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>01628501395</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3074,11 +2786,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>01628501395</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3099,11 +2807,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>015208548606</t>
-        </is>
-      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3124,11 +2828,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>015208548606</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3141,7 +2841,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
+          <t>El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3162,7 +2862,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
+          <t>El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3183,7 +2883,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
+          <t>El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3212,11 +2912,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>01637884674</t>
-        </is>
-      </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3237,11 +2933,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>01637884674</t>
-        </is>
-      </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3262,11 +2954,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>01634522399</t>
-        </is>
-      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3287,11 +2975,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>01634522399</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3304,7 +2988,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>El Hasnaoui Faissal / Fadoua Kasrioui</t>
+          <t>Fadoua Kasrioui</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3312,11 +2996,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>01633904259</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3337,11 +3017,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>015771964912</t>
-        </is>
-      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3362,11 +3038,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>015755280532</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3387,11 +3059,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>015755280532</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3492,11 +3160,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>01607918</t>
-        </is>
-      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3580,11 +3244,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>630112288</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3605,11 +3265,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>630112288</t>
-        </is>
-      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3622,7 +3278,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Akram El Meddi / Farida Bourasse</t>
+          <t>Farida Bourasse</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3630,11 +3286,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>86253175 / Vater 015731752857</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3647,7 +3299,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Akram El Meddi / Farida Bourasse</t>
+          <t>Farida Bourasse</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3655,11 +3307,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>86253175 / Vater 015731752857</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3680,11 +3328,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3705,11 +3349,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
-        </is>
-      </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3730,11 +3370,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
-        </is>
-      </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3755,11 +3391,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>78670630</t>
-        </is>
-      </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3780,11 +3412,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>78670630</t>
-        </is>
-      </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3805,11 +3433,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>015215810333</t>
-        </is>
-      </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3830,11 +3454,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>015215810333</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3855,11 +3475,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>015228266960</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3880,11 +3496,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>015228266960</t>
-        </is>
-      </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3905,11 +3517,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>015228266960</t>
-        </is>
-      </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3922,7 +3530,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ABDALLAH EL MSELLEM</t>
+          <t>ABDALLAH EL MSELLEM UND FOUZIA HAMDACH SAAIDI</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3930,11 +3538,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>94388219</t>
-        </is>
-      </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3972,11 +3576,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>82665527</t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4014,11 +3614,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>18007458</t>
-        </is>
-      </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4039,11 +3635,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>01607598117</t>
-        </is>
-      </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4064,11 +3656,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>01607598117</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4106,11 +3694,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>03375753</t>
-        </is>
-      </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4131,11 +3715,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>03375753</t>
-        </is>
-      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4156,11 +3736,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>33839254</t>
-        </is>
-      </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4181,11 +3757,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>33839254</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4206,11 +3778,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>015735741208</t>
-        </is>
-      </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4240,7 +3808,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hafid El Wali Jali</t>
+          <t>Hafid El Wali Jali und Loubna Ghouti</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4248,11 +3816,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>01629136240</t>
-        </is>
-      </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4273,11 +3837,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>680895592</t>
-        </is>
-      </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4298,11 +3858,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>680895592</t>
-        </is>
-      </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4357,11 +3913,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>8817832</t>
-        </is>
-      </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4382,11 +3934,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>015231704789</t>
-        </is>
-      </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4407,11 +3955,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>015730836942</t>
-        </is>
-      </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4432,11 +3976,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>622047214</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4457,11 +3997,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>015901163595</t>
-        </is>
-      </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4482,11 +4018,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>015901163595</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4507,11 +4039,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>92011709</t>
-        </is>
-      </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4532,11 +4060,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>92011709</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4557,11 +4081,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>92011709</t>
-        </is>
-      </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4591,7 +4111,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Rima Rashid / Hanan Khashav</t>
+          <t>Rima Rashid</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4599,11 +4119,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>656478038</t>
-        </is>
-      </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4616,7 +4132,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Rima Rashid / Hanan Khashav</t>
+          <t>Rima Rashid</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4624,11 +4140,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>656478038</t>
-        </is>
-      </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4639,7 +4151,11 @@
           <t>Hannun Amira</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Nour-Eddine Hannun</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4656,7 +4172,11 @@
           <t>Hannun Jana</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Nour-Eddine Hannun</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4673,7 +4193,11 @@
           <t>Hannun Nassim</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Nour-Eddine Hannun</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4700,11 +4224,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>33641335</t>
-        </is>
-      </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4725,11 +4245,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>29489957</t>
-        </is>
-      </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4740,7 +4256,11 @@
           <t>Harchaoui Yassir</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Hassan Harchaoui</t>
+        </is>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4767,11 +4287,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>01623602124 / 652977162</t>
-        </is>
-      </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4792,11 +4308,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>01623602124 / 652977162</t>
-        </is>
-      </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4817,11 +4329,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>01629748646</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4842,11 +4350,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>72585043</t>
-        </is>
-      </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4867,11 +4371,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>72585043</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4884,7 +4384,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Mourad Houmoum</t>
+          <t>Mourad Houmoum und Siham Barzizoui</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4892,11 +4392,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>662279838</t>
-        </is>
-      </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4917,11 +4413,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>015771992141 / 81037035</t>
-        </is>
-      </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4942,11 +4434,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>015771992141 / 81037035</t>
-        </is>
-      </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4967,11 +4455,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>28394342</t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4992,11 +4476,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>01605212145</t>
-        </is>
-      </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5017,11 +4497,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>01632059013</t>
-        </is>
-      </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5042,11 +4518,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>01632059013</t>
-        </is>
-      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5118,11 +4590,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>015738339240</t>
-        </is>
-      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5143,11 +4611,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>015738339240</t>
-        </is>
-      </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5158,7 +4622,11 @@
           <t>Kadiri Jannah</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Massud Kadiri</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5175,7 +4643,11 @@
           <t xml:space="preserve">Kadiri Maruan </t>
         </is>
       </c>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Massud Kadiri</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5202,11 +4674,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>73126230</t>
-        </is>
-      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5227,11 +4695,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>73126230</t>
-        </is>
-      </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5261,7 +4725,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Mustapha Karim</t>
+          <t>Mustapha Karim Samira Razouki</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5269,11 +4733,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>015174457532</t>
-        </is>
-      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5294,11 +4754,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>78015492</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5319,11 +4775,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>78015492</t>
-        </is>
-      </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5336,7 +4788,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Kebdani Zaki / Dalila Moussaoui</t>
+          <t>Dalila Moussaoui</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5344,11 +4796,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>79331020</t>
-        </is>
-      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5361,7 +4809,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Kebdani Zaki / Dalila Moussaoui</t>
+          <t>Dalila Moussaoui</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5369,11 +4817,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>79331020</t>
-        </is>
-      </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5394,11 +4838,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>46917705</t>
-        </is>
-      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5440,11 +4880,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>46917705</t>
-        </is>
-      </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5507,11 +4943,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>0034632997890</t>
-        </is>
-      </c>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5532,11 +4964,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>01604263446</t>
-        </is>
-      </c>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5557,11 +4985,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>14901105</t>
-        </is>
-      </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5582,11 +5006,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>01626576151</t>
-        </is>
-      </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5607,11 +5027,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>14901105</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5674,11 +5090,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>657980622</t>
-        </is>
-      </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5699,11 +5111,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>657980622</t>
-        </is>
-      </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5724,11 +5132,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>015906544373</t>
-        </is>
-      </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5739,17 +5143,17 @@
           <t>Lamzira Yassine</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Beguenstigter/Zahlungspflichtiger</t>
+        </is>
+      </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>015757071531</t>
-        </is>
-      </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5762,7 +5166,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Nour-Eddine Maarad / Rachida Zaidouni</t>
+          <t>Rachida Zaidouni</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5770,11 +5174,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>645999275</t>
-        </is>
-      </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5787,7 +5187,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Nour-Eddine Maarad / Rachida Zaidouni</t>
+          <t>Rachida Zaidouni</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5795,11 +5195,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>645999275</t>
-        </is>
-      </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5810,7 +5206,11 @@
           <t>Maarad Houda Nour</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>NAJIM MAARAD</t>
+        </is>
+      </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5837,11 +5237,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>33489258</t>
-        </is>
-      </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5879,11 +5275,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>662743519</t>
-        </is>
-      </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5894,7 +5286,11 @@
           <t>Mahria Marwa</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Mohamed Mahria</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5921,11 +5317,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>95631978 / 96670608</t>
-        </is>
-      </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5946,11 +5338,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>95631978 / 96670608</t>
-        </is>
-      </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5963,7 +5351,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Abdelaziz Martah / Anissa El Bali</t>
+          <t>Anissa El Bali</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5971,11 +5359,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>27377930/78801311</t>
-        </is>
-      </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5996,11 +5380,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>685924977</t>
-        </is>
-      </c>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6021,11 +5401,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>685924977</t>
-        </is>
-      </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6046,11 +5422,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>666999685</t>
-        </is>
-      </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6071,11 +5443,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>666999685</t>
-        </is>
-      </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6138,11 +5506,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>015737806350</t>
-        </is>
-      </c>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6197,11 +5561,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>11530035</t>
-        </is>
-      </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6222,11 +5582,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>11530035</t>
-        </is>
-      </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6247,11 +5603,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>87714295</t>
-        </is>
-      </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6272,11 +5624,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>87714295</t>
-        </is>
-      </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6314,11 +5662,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>37529504</t>
-        </is>
-      </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6339,11 +5683,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>37529504</t>
-        </is>
-      </c>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6354,7 +5694,11 @@
           <t>Ouadi Abderrahman</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Abdelhalim Ouadi</t>
+        </is>
+      </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6371,7 +5715,11 @@
           <t>Ouadi Nouh</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Abdelhalim Ouadi</t>
+        </is>
+      </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6419,11 +5767,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>622809686</t>
-        </is>
-      </c>
+      <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6434,7 +5778,11 @@
           <t xml:space="preserve">Oughannou Layal </t>
         </is>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1729385627</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6451,7 +5799,11 @@
           <t xml:space="preserve">Oughannou Sofia </t>
         </is>
       </c>
-      <c r="C260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1729385627</t>
+        </is>
+      </c>
       <c r="D260" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6499,11 +5851,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>015253120932</t>
-        </is>
-      </c>
+      <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6541,11 +5889,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>643576404</t>
-        </is>
-      </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6566,11 +5910,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>643576404</t>
-        </is>
-      </c>
+      <c r="E265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6591,11 +5931,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6616,11 +5952,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6641,11 +5973,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6666,11 +5994,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6691,11 +6015,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>015202080274</t>
-        </is>
-      </c>
+      <c r="E270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6716,11 +6036,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>25305913</t>
-        </is>
-      </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6731,7 +6047,11 @@
           <t>Sarrar Musa</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Fikri El Khatabi El Hassnaoui undHakima Moussaoui Sarrar</t>
+        </is>
+      </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6758,11 +6078,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>015735210305</t>
-        </is>
-      </c>
+      <c r="E273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6773,7 +6089,11 @@
           <t xml:space="preserve">Sghiri Mossaab </t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>ABDELHAMID SGHIRI</t>
+        </is>
+      </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6790,7 +6110,11 @@
           <t>Sghiri Souahail</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>ABDELHAMID SGHIRI</t>
+        </is>
+      </c>
       <c r="D275" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6817,11 +6141,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6842,11 +6162,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6867,11 +6183,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6892,11 +6204,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6917,11 +6225,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>88740045</t>
-        </is>
-      </c>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6934,7 +6238,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Remo Statello</t>
+          <t>Herr Remo Statello</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6942,11 +6246,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>015110782399</t>
-        </is>
-      </c>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6984,11 +6284,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>681190908</t>
-        </is>
-      </c>
+      <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -7001,7 +6297,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Rachid Tagharbit / Laila Badraoui</t>
+          <t>Rachid Tagharbit</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -7009,11 +6305,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>015908442447 oder 015908420126</t>
-        </is>
-      </c>
+      <c r="E284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7034,11 +6326,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>656809351</t>
-        </is>
-      </c>
+      <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7059,11 +6347,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>03683967</t>
-        </is>
-      </c>
+      <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7084,11 +6368,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>676867604</t>
-        </is>
-      </c>
+      <c r="E287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7109,11 +6389,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>676867604</t>
-        </is>
-      </c>
+      <c r="E288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7151,11 +6427,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>630730160</t>
-        </is>
-      </c>
+      <c r="E290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7193,11 +6465,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>664148356</t>
-        </is>
-      </c>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7218,11 +6486,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>664148356</t>
-        </is>
-      </c>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7264,11 +6528,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>015779624907</t>
-        </is>
-      </c>
+      <c r="E295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7289,11 +6549,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>29170909</t>
-        </is>
-      </c>
+      <c r="E296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7314,11 +6570,7 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>29170909</t>
-        </is>
-      </c>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7329,7 +6581,11 @@
           <t>Zakhnini Yasmin</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Hassan Zakhnini</t>
+        </is>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
           <t>B0</t>
@@ -7356,11 +6612,7 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>655282818</t>
-        </is>
-      </c>
+      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">

--- a/RealProject/kids_parents_from_kids_debug21.xlsx
+++ b/RealProject/kids_parents_from_kids_debug21.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Karima Chamlal</t>
+          <t>Afkir Mohamed / Karima Chamlal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Karima Chamlal</t>
+          <t>Afkir Mohamed / Karima Chamlal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Walid Ahmadi und Rachida Ahmadi</t>
+          <t>Walid Ahmadi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Walid Ahmadi und Rachida Ahmadi</t>
+          <t>Walid Ahmadi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Walid Ahmadi und Rachida Ahmadi</t>
+          <t>Walid Ahmadi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Moulay El Hassan Ait Sghir YaminaSaidi</t>
+          <t>Moulay El Hassan Ait Sghir</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,7 +727,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>623914891</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -748,7 +752,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>016097264718</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -769,7 +777,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>015782364891</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -814,17 +826,17 @@
           <t>Alyah Choua</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Beguenstigter/Zahlungspflichtiger</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01608531784</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -887,7 +899,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01637020882</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -908,7 +924,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01637020882</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -929,7 +949,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01637020882</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -950,7 +974,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>630323444</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -961,11 +989,7 @@
           <t>Arabaj El Bouslami Ayman</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>-646697186</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>B0</t>
@@ -992,7 +1016,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>015774239272</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1013,7 +1041,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01636052152</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1034,7 +1066,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>644280857</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1055,7 +1091,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01627270413</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1076,7 +1116,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01627270413</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1097,7 +1141,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>632334540</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1108,11 +1156,7 @@
           <t>Bakhtaoui Tasnim</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Jamal Bakhtaoui</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>B0</t>
@@ -1129,11 +1173,7 @@
           <t>Barta Adam</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Abdellatif Barta</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>B0</t>
@@ -1160,7 +1200,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>015778648500</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1181,7 +1225,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>015778648500</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1194,7 +1242,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mohamed Belga und Sabah Bohaloui</t>
+          <t>Mohamed Belga</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1202,7 +1250,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01629347971</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1215,7 +1267,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Huelya Tiska</t>
+          <t>Huelya Tiska Belkassem Hafid</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1223,7 +1275,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33561831</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1244,7 +1300,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>684608600</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1265,7 +1325,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33561831</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1286,7 +1350,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>015755184201</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1307,7 +1375,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>631130470</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1328,7 +1400,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88757701</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1339,11 +1415,7 @@
           <t>Ben Nasser Rania</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1786984637</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>B0</t>
@@ -1404,7 +1476,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Amal Hajji und Khalid Bensaid</t>
+          <t>Amal Hajji</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1412,7 +1484,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83039184</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1433,7 +1509,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>621205280</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1454,7 +1534,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>015252615611</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1475,7 +1559,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>015202764625</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1496,7 +1584,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>49137956</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1517,7 +1609,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>49137956</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1538,7 +1634,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>015731354679</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1559,7 +1659,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>015731354679</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1580,7 +1684,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>015731354679</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1677,7 +1785,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mostapha Bouzakri Bouzakri NaimaRhadi</t>
+          <t>Mostapha Bouzakri</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1685,7 +1793,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>015751704161</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1706,7 +1818,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>648075411</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1727,7 +1843,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>648075411</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1748,7 +1868,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>648075411</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1769,7 +1893,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1790,7 +1918,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1811,7 +1943,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1832,7 +1968,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>015228267087</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1853,7 +1993,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>620912784</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1874,7 +2018,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82012638</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1895,7 +2043,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86624581</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1908,7 +2060,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Naima Calabro</t>
+          <t>Thomas Calabro / Naima Calabro  /</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1916,7 +2068,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>015228127376</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1937,7 +2093,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>015737878177</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1958,7 +2118,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>015737878177</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1979,7 +2143,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73515681</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2000,7 +2168,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>73515681</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2011,17 +2183,17 @@
           <t>Chamlal Madina</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Beguenstigter/Zahlungspflichtiger</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01608531784</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2042,7 +2214,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>015758484473</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2063,7 +2239,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>015758484473</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2076,7 +2256,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
+          <t>Rachid Cherkaoui</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2084,7 +2264,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>015773665575</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2097,7 +2281,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
+          <t>Rachid Cherkaoui</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2105,7 +2289,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>015773665575</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2118,7 +2306,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
+          <t>Rachid Cherkaoui</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2126,7 +2314,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>015773665575</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2139,7 +2331,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Said Chochouh und Ouafae Barzizoui</t>
+          <t>Said Chochouh</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2147,7 +2339,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78354446</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2158,11 +2354,7 @@
           <t>Chochouh Maryam</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Said Chochouh</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>A5</t>
@@ -2179,11 +2371,7 @@
           <t>Chochouh Zaynab</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Said Chochouh</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>A5</t>
@@ -2210,7 +2398,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72268205</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2231,7 +2423,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72268205</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2252,7 +2448,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>72001140</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2273,7 +2473,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>72001140</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2294,7 +2498,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>72001140</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2315,7 +2523,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>657818946</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2336,7 +2548,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>657818946</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2357,7 +2573,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>738667380</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2378,7 +2598,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>738667380</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2399,7 +2623,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>738667380</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2412,7 +2640,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Jaouad El Aissaoui und OuafaBoussenna</t>
+          <t>Jaouad El Aissaoui</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2420,7 +2648,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>015255709798</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2433,7 +2665,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Jaouad El Aissaoui und OuafaBoussenna</t>
+          <t>Jaouad El Aissaoui</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2441,7 +2673,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>015255709798</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2479,7 +2715,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>015903020809</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2500,7 +2740,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>015903020809</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2521,7 +2765,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>015903020809</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2542,7 +2790,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>58638258</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2563,7 +2815,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>58638258</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2584,7 +2840,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6 24640578</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2605,7 +2865,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>6 24640578</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2618,7 +2882,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ahmed El Bakkali und Kenza Serhan</t>
+          <t>Ahmed El Bakkali</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2626,7 +2890,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>015906390487</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2647,7 +2915,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>015228352331</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2668,7 +2940,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>015228352331</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2706,7 +2982,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>51413553</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2736,7 +3016,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Monir El Boujaddaini Rachida Bokhabza-El Boujaddaini</t>
+          <t>Monir El Boujaddaini</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2744,7 +3024,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>621609954</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2765,7 +3049,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>01628501395</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2786,7 +3074,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>01628501395</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2807,7 +3099,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>015208548606</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2828,7 +3124,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>015208548606</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2841,7 +3141,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>El Hassnaoui, Najima</t>
+          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2862,7 +3162,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>El Hassnaoui, Najima</t>
+          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2883,7 +3183,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>El Hassnaoui, Najima</t>
+          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2912,7 +3212,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>01637884674</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2933,7 +3237,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>01637884674</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2954,7 +3262,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>01634522399</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2975,7 +3287,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>01634522399</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2988,7 +3304,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Fadoua Kasrioui</t>
+          <t>El Hasnaoui Faissal / Fadoua Kasrioui</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2996,7 +3312,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>01633904259</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3017,7 +3337,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>015771964912</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3038,7 +3362,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>015755280532</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3059,7 +3387,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>015755280532</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3160,7 +3492,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>01607918</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3244,7 +3580,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>630112288</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3265,7 +3605,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>630112288</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3278,7 +3622,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Farida Bourasse</t>
+          <t>Akram El Meddi / Farida Bourasse</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3286,7 +3630,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86253175 / Vater 015731752857</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3299,7 +3647,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Farida Bourasse</t>
+          <t>Akram El Meddi / Farida Bourasse</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3307,7 +3655,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86253175 / Vater 015731752857</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3328,7 +3680,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>682392891 / 666894717</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3349,7 +3705,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>682392891 / 666894717</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3370,7 +3730,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>682392891 / 666894717</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3391,7 +3755,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>78670630</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3412,7 +3780,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>78670630</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3433,7 +3805,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>015215810333</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3454,7 +3830,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>015215810333</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3475,7 +3855,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>015228266960</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3496,7 +3880,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>015228266960</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3517,7 +3905,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>015228266960</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3530,7 +3922,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ABDALLAH EL MSELLEM UND FOUZIA HAMDACH SAAIDI</t>
+          <t>ABDALLAH EL MSELLEM</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3538,7 +3930,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94388219</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3576,7 +3972,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>82665527</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3614,7 +4014,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>18007458</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3635,7 +4039,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>01607598117</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3656,7 +4064,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>01607598117</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3694,7 +4106,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>03375753</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3715,7 +4131,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>03375753</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3736,7 +4156,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>33839254</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3757,7 +4181,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>33839254</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3778,7 +4206,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>015735741208</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3808,7 +4240,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hafid El Wali Jali und Loubna Ghouti</t>
+          <t>Hafid El Wali Jali</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3816,7 +4248,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>01629136240</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3837,7 +4273,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>680895592</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3858,7 +4298,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>680895592</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3913,7 +4357,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>8817832</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3934,7 +4382,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>015231704789</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3955,7 +4407,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>015730836942</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3976,7 +4432,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>622047214</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3997,7 +4457,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>015901163595</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4018,7 +4482,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>015901163595</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4039,7 +4507,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92011709</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4060,7 +4532,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92011709</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4081,7 +4557,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92011709</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4111,7 +4591,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Rima Rashid</t>
+          <t>Rima Rashid / Hanan Khashav</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4119,7 +4599,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>656478038</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4132,7 +4616,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Rima Rashid</t>
+          <t>Rima Rashid / Hanan Khashav</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4140,7 +4624,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>656478038</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4151,11 +4639,7 @@
           <t>Hannun Amira</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Nour-Eddine Hannun</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4172,11 +4656,7 @@
           <t>Hannun Jana</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Nour-Eddine Hannun</t>
-        </is>
-      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4193,11 +4673,7 @@
           <t>Hannun Nassim</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Nour-Eddine Hannun</t>
-        </is>
-      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4224,7 +4700,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>33641335</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4245,7 +4725,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>29489957</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4256,11 +4740,7 @@
           <t>Harchaoui Yassir</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Hassan Harchaoui</t>
-        </is>
-      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4287,7 +4767,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>01623602124 / 652977162</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4308,7 +4792,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>01623602124 / 652977162</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4329,7 +4817,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>01629748646</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4350,7 +4842,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>72585043</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4371,7 +4867,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>72585043</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4384,7 +4884,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Mourad Houmoum und Siham Barzizoui</t>
+          <t>Mourad Houmoum</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4392,7 +4892,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>662279838</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4413,7 +4917,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>015771992141 / 81037035</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4434,7 +4942,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>015771992141 / 81037035</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4455,7 +4967,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>28394342</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4476,7 +4992,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>01605212145</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4497,7 +5017,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>01632059013</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4518,7 +5042,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>01632059013</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4590,7 +5118,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>015738339240</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4611,7 +5143,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>015738339240</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4622,11 +5158,7 @@
           <t>Kadiri Jannah</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Massud Kadiri</t>
-        </is>
-      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4643,11 +5175,7 @@
           <t xml:space="preserve">Kadiri Maruan </t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Massud Kadiri</t>
-        </is>
-      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>B0</t>
@@ -4674,7 +5202,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>73126230</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4695,7 +5227,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>73126230</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4725,7 +5261,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Mustapha Karim Samira Razouki</t>
+          <t>Mustapha Karim</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4733,7 +5269,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>015174457532</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4754,7 +5294,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>78015492</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4775,7 +5319,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>78015492</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4788,7 +5336,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Dalila Moussaoui</t>
+          <t>Kebdani Zaki / Dalila Moussaoui</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4796,7 +5344,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>79331020</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4809,7 +5361,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Dalila Moussaoui</t>
+          <t>Kebdani Zaki / Dalila Moussaoui</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4817,7 +5369,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>79331020</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4838,7 +5394,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>46917705</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4880,7 +5440,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>46917705</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4943,7 +5507,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>0034632997890</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4964,7 +5532,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>01604263446</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4985,7 +5557,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>14901105</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5006,7 +5582,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>01626576151</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5027,7 +5607,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>14901105</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5090,7 +5674,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>657980622</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5111,7 +5699,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>657980622</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5132,7 +5724,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>015906544373</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5143,17 +5739,17 @@
           <t>Lamzira Yassine</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Beguenstigter/Zahlungspflichtiger</t>
-        </is>
-      </c>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>015757071531</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5166,7 +5762,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Rachida Zaidouni</t>
+          <t>Nour-Eddine Maarad / Rachida Zaidouni</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5174,7 +5770,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>645999275</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5187,7 +5787,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Rachida Zaidouni</t>
+          <t>Nour-Eddine Maarad / Rachida Zaidouni</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5195,7 +5795,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>645999275</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5206,11 +5810,7 @@
           <t>Maarad Houda Nour</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>NAJIM MAARAD</t>
-        </is>
-      </c>
+      <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5237,7 +5837,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>33489258</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5275,7 +5879,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>662743519</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5286,11 +5894,7 @@
           <t>Mahria Marwa</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Mohamed Mahria</t>
-        </is>
-      </c>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5317,7 +5921,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>95631978 / 96670608</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5338,7 +5946,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>95631978 / 96670608</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5351,7 +5963,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Anissa El Bali</t>
+          <t>Abdelaziz Martah / Anissa El Bali</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5359,7 +5971,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>27377930/78801311</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5380,7 +5996,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>685924977</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5401,7 +6021,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>685924977</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5422,7 +6046,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>666999685</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5443,7 +6071,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>666999685</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5506,7 +6138,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>015737806350</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -5561,7 +6197,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>11530035</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -5582,7 +6222,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>11530035</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -5603,7 +6247,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>87714295</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -5624,7 +6272,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>87714295</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -5662,7 +6314,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>37529504</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -5683,7 +6339,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>37529504</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -5694,11 +6354,7 @@
           <t>Ouadi Abderrahman</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Abdelhalim Ouadi</t>
-        </is>
-      </c>
+      <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5715,11 +6371,7 @@
           <t>Ouadi Nouh</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Abdelhalim Ouadi</t>
-        </is>
-      </c>
+      <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5767,7 +6419,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>622809686</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -5778,11 +6434,7 @@
           <t xml:space="preserve">Oughannou Layal </t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>1729385627</t>
-        </is>
-      </c>
+      <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5799,11 +6451,7 @@
           <t xml:space="preserve">Oughannou Sofia </t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>1729385627</t>
-        </is>
-      </c>
+      <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
           <t>B0</t>
@@ -5851,7 +6499,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>015253120932</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5889,7 +6541,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>643576404</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -5910,7 +6566,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>643576404</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -5931,7 +6591,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -5952,7 +6616,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -5973,7 +6641,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -5994,7 +6666,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6015,7 +6691,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>015202080274</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6036,7 +6716,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>25305913</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6047,11 +6731,7 @@
           <t>Sarrar Musa</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Fikri El Khatabi El Hassnaoui undHakima Moussaoui Sarrar</t>
-        </is>
-      </c>
+      <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6078,7 +6758,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>015735210305</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6089,11 +6773,7 @@
           <t xml:space="preserve">Sghiri Mossaab </t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>ABDELHAMID SGHIRI</t>
-        </is>
-      </c>
+      <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6110,11 +6790,7 @@
           <t>Sghiri Souahail</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>ABDELHAMID SGHIRI</t>
-        </is>
-      </c>
+      <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6141,7 +6817,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6162,7 +6842,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6183,7 +6867,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6204,7 +6892,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6225,7 +6917,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>88740045</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6238,7 +6934,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Herr Remo Statello</t>
+          <t>Remo Statello</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6246,7 +6942,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>015110782399</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6284,7 +6984,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>681190908</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6297,7 +7001,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Rachid Tagharbit</t>
+          <t>Rachid Tagharbit / Laila Badraoui</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6305,7 +7009,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>015908442447 oder 015908420126</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6326,7 +7034,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>656809351</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6347,7 +7059,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>03683967</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6368,7 +7084,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>676867604</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -6389,7 +7109,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>676867604</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6427,7 +7151,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>630730160</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -6465,7 +7193,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>664148356</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6486,7 +7218,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>664148356</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6528,7 +7264,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>015779624907</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6549,7 +7289,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>29170909</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6570,7 +7314,11 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>29170909</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6581,11 +7329,7 @@
           <t>Zakhnini Yasmin</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Hassan Zakhnini</t>
-        </is>
-      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
           <t>B0</t>
@@ -6612,7 +7356,11 @@
           <t>A5</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>655282818</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
